--- a/WorkScripts/SynologyReader/Kostin_Georgii_template.xlsx
+++ b/WorkScripts/SynologyReader/Kostin_Georgii_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgii.kostin\PycharmProjects\PythonProjects\WorkScripts\SynologyReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403D5101-E6E4-4C99-822D-42329A1E3F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D93B86-B7B9-4896-B082-A0A7FB7EBC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="1425" windowWidth="24944" windowHeight="14775" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1508" windowWidth="24945" windowHeight="12292" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -1307,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
@@ -1364,89 +1364,180 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.65" thickBot="1"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.65" thickBot="1"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.5">
-      <c r="A13" s="4" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.5">
+      <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="19" ht="15" customHeight="1"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/WorkScripts/SynologyReader/Kostin_Georgii_template.xlsx
+++ b/WorkScripts/SynologyReader/Kostin_Georgii_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgii.kostin\PycharmProjects\PythonProjects\WorkScripts\SynologyReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D93B86-B7B9-4896-B082-A0A7FB7EBC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE1B476-1B7E-4673-A60B-F5EE433598A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="1508" windowWidth="24945" windowHeight="12292" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>

--- a/WorkScripts/SynologyReader/Kostin_Georgii_template.xlsx
+++ b/WorkScripts/SynologyReader/Kostin_Georgii_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgii.kostin\PycharmProjects\PythonProjects\WorkScripts\SynologyReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE1B476-1B7E-4673-A60B-F5EE433598A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E121B240-130B-4E9E-A9FA-D370BC6A7E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1508" windowWidth="24945" windowHeight="12292" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29153" yWindow="1620" windowWidth="20507" windowHeight="12133" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -1317,7 +1317,7 @@
   <cols>
     <col min="1" max="1" width="12.73046875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="59.1328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="76.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.73046875" style="1"/>
